--- a/BY.X BOUTIQUE七月订单.xlsx
+++ b/BY.X BOUTIQUE七月订单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A0131-FDDD-432C-8130-0DD47573DF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3647CEF-AFD0-4501-91AA-F6A2AD561865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11616" yWindow="108" windowWidth="11316" windowHeight="12360" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="拼邮" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,6 +322,14 @@
   </si>
   <si>
     <t>6066262985154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculptor, mmlg, kirsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city breeze, mmlg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,13 +897,13 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,8 +1423,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1430,8 +1438,8 @@
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,7 +1647,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="60" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="48"/>
@@ -1674,7 +1682,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="32"/>
       <c r="M10" s="9"/>
       <c r="N10" s="4" t="s">
@@ -1707,7 +1715,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="61"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="48"/>
       <c r="M11" s="10"/>
       <c r="N11" s="7" t="s">
@@ -2131,7 +2139,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2201,16 +2209,24 @@
         <v>1552</v>
       </c>
       <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="25">
+        <v>80</v>
+      </c>
       <c r="H2" s="25">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
-        <v>531</v>
-      </c>
-      <c r="I2" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="J2" s="27"/>
-      <c r="K2" s="24"/>
+      <c r="K2" s="24">
+        <v>1</v>
+      </c>
       <c r="L2" s="34"/>
-      <c r="M2" s="25"/>
+      <c r="M2" s="25">
+        <v>253</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -2234,7 +2250,9 @@
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>243.75</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="30" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" s="38"/>
       <c r="L3" s="35"/>
       <c r="M3" s="25"/>
@@ -2301,11 +2319,11 @@
       </c>
       <c r="M9" s="27">
         <f>SUM(M1:M8)</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="O9" s="27">
         <f>H10-M9</f>
-        <v>774.75</v>
+        <v>441.75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -2315,7 +2333,7 @@
       </c>
       <c r="H10" s="27">
         <f>SUM(H2:H9)</f>
-        <v>774.75</v>
+        <v>694.75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/BY.X BOUTIQUE七月订单.xlsx
+++ b/BY.X BOUTIQUE七月订单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3647CEF-AFD0-4501-91AA-F6A2AD561865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF878C9E-A0D5-4A18-93F3-F60E91E11347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="拼邮" sheetId="4" r:id="rId1"/>
@@ -32,6 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{C764AB00-6D52-4FB1-AACD-59AA2C2FC36C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两次下单的国内运费，一共为80rmb</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
@@ -343,7 +379,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +472,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1423,8 +1474,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2135,11 +2186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2296,9 @@
         <v>897</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
       <c r="H3" s="29">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>243.75</v>
@@ -2347,9 +2400,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BY.X BOUTIQUE七月订单.xlsx
+++ b/BY.X BOUTIQUE七月订单.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF878C9E-A0D5-4A18-93F3-F60E91E11347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09AC85A-96D2-4D83-AFEE-4B74258AA54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
-    <sheet name="拼邮" sheetId="4" r:id="rId1"/>
-    <sheet name="直邮" sheetId="5" r:id="rId2"/>
-    <sheet name="下单统计" sheetId="6" r:id="rId3"/>
+    <sheet name="拼邮" sheetId="8" r:id="rId1"/>
+    <sheet name="下单统计" sheetId="10" r:id="rId2"/>
+    <sheet name="&lt;-前 【分界线】 后(TB)-&gt;" sheetId="7" r:id="rId3"/>
+    <sheet name="订单" sheetId="4" r:id="rId4"/>
+    <sheet name="Rosé同款发卡" sheetId="6" r:id="rId5"/>
+    <sheet name="已下单" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -68,8 +71,614 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{EA377AC5-F2BE-46D4-AD34-D63125004F30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{FF0F8D31-4DC2-43B8-BAB8-7DF2415F4B11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{20AD3310-7BDF-49C0-BCA0-2388C3503C99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{D45F9F3C-DE60-4E3C-B842-4C72F2A49104}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{D528893A-8BD7-4E8C-8D69-E655500D83A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.优惠券5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{48302BC5-384D-44C9-91DC-038F57A2D0D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{F7E63767-BC49-495D-9912-54F76B95BE94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{39671659-179F-468D-84EB-DBF1AAB534BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{21659440-E9F7-4660-8BE6-C6E48EE8CE4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{0D4539EA-7DF1-4E7F-8D50-4414ABAAF296}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{13FF3869-F0E0-40B3-BBF2-CA380C5FC079}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.优惠券5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{20830AA7-B968-4EA8-8A94-340C901B300B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.优惠券5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{DDA23990-5181-40DB-8494-70A432DE18B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0565E45D-4CD4-46E4-A17E-4EF28B7C81B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{C0ECE044-390C-4F23-BD9C-84265C2C265B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10
+2.返现5元（品牌未发蓝色，换透明）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{A649556C-AEFB-4871-850B-51F38EC61BD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{F56A8907-C460-4F41-8E9E-509B46085BDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{8D997427-189E-45D3-A70E-E24D95DF8E29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{531800A0-DDE2-4B51-8005-D080781B9C33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>milly</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{089FDED0-33B9-450E-BAEC-EBF055D05325}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+配送费2,400</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{5E34CFDB-2CA3-41A4-8BB8-CC535B801A54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Apple&amp;Deep退款的短袖抵扣了部分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{4A06A591-8733-4AFC-8EB9-7DEF6428DB35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[预估]米色猫爪250国际运费25</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="214">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,249 +732,801 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>国内运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单网站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖T恐龙印花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三只小熊短袖t恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省 成都市 锦江区 静安路一号万科城市花园51栋 ，610011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple&amp;Deep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖1+1：米黄logo+黑色logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖1+1：米色兔子+橙色兔子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖1+1：橙色logo+紫色logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖1+1：黑色兔子+紫色logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓咏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 广州市 荔湾区 石围塘街道 洞企石路小涡新村56号 ，510145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 北京市 海淀区 甘家口街道 车公庄西路20号院14号楼104 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌辰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省 烟台市 莱山区 初家街道 双河西路53号万光福园 ，264600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴眨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 广州市 天河区 林和街道 林和东路（林和苑）6栋快递箱 ，510510</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴彩英Rosé同款 BlingStar发夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜伶俐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 普陀区 石泉路街道 管弄路120弄1号807（可放快递柜），000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bling Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOY LONDON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典款白标logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑伊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省 宜昌市 伍家岗区 伍家乡 同强路兴润秋语台速递易 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOWACID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长袖卫衣polo衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色 s码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓帆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市 浦东新区 川沙新镇 华夏二路200弄珠光苑丰巢快递柜 ，200120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色白标 均码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马伟杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省 乐山市 峨眉山市 绥山镇 大南马氏骨科 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴彩英Rosé同款 BlingStar发夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩元单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受箱提现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月收益(启用tb前)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总预支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩元总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple&amp;Deep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’599457511215889594</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1118740864992004035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1119121889415951208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1118515651367932569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1115989760322008813</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色 L码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE L码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1115556962327273934</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1115725187011876017</t>
+  </si>
+  <si>
+    <t>‘1114556353000102925</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明+蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明+透明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1112792834201930629</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连帽衫卫衣长袖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深蓝色 S码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色 s码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSCHF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色格纹短裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1121135265554857315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1120899459311346909</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里乌斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津 天津市 西青区 杨柳青镇 莱茵小镇美林苑24-2-402 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈泽琳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 佛山市 顺德区 容桂街道 广东省佛山市顺德区容桂东逸湾七期B区3街35号 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方隽星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省 岳阳市 临湘市 长安街道 长安中路登高湘城 ，410005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘600015492248740499</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季新品短袖T恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色 S码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色 S码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1129006082880346909</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘382502488774</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断货退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>382070312182 CJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>632457423021 CJ</t>
+  </si>
+  <si>
+    <t>’382070369895</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘381859923100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断货退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLB新款字母渔夫帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡其色 57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹璐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省 漳州市 龙海市 角美镇 漳州台商投资区角美龙佳睿途酒店员工宿舍 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1130933024126582174</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>国际运费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>mixxmix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅蓝色牛仔短裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省芜湖市弋江区江城国际瑞华苑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单睿婕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘600431525816828098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪纯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省 石家庄市 裕华区 裕兴街道 翟营南大街66号联邦东方明珠6号楼3单元 ，050081</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIMICAWE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣美同款翻领运动套装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHORTS BLACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOP BLACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海 上海市 浦东新区 潍坊新村街道 潍坊西路2弄世茂滨江花园南区7号楼7G ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1134784224597992647</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已回国：A2 - A25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixx粉白色长袖t恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗婧蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市宝安区26区中洲中央公园1期1B2402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.***</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米色猫爪鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码230</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省安庆市迎江区天后宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculptor</t>
+  </si>
+  <si>
+    <t>7.***</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>国内运费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>总付款（包含国际国内运费）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张佳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省 南通市 崇川区 中兴街道 军山花园36幢501室 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1144429441553722084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1150813857732964114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1150237248844857315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChloeLeigh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 龙华区 观澜街道观澜大富工业区新宏泽工业园西点买货运中转站+，019214</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里乌斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津 天津市 西青区 杨柳青镇 莱茵小镇美林苑24-2-402 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已预定*5对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>+/-：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>总收入：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总付款：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单统计!A3</t>
+  </si>
+  <si>
+    <t>大连市沙河口区五一路26号201室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨璐羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6066262985154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色圆领长袖卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色圆领T恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mmlg </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>382486766586</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅粉格子半身裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>382486766575</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米色千鸟格半身裙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city breeze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单统计!A2</t>
+  </si>
+  <si>
+    <t>广东省肇庆市四会市康宁路东海明珠豪庭丰巢快递柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯色圆领长袖蓝卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市蔡甸区车城大道218号 金凯公寓c栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈日丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北京市大兴区海子角南里1号楼1单元302 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋雨琦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>381023005001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kirsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市南岸区美堤雅城2期2栋2单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6066262892685</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深灰长袖polo领卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市密云区园林路中加锦园五号楼三单元301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜文娟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6066262862752</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨绿条纹短袖圆领T恤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京北京市海淀区甘家口街道车公庄西路20号院14号楼104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>402363823842</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色手提帆布包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sculptor </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总①</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city breeze, mmlg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculptor, mmlg, kirsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>+/-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总付款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内运费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+/-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单网站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际运费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总运费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总①</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kookie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京北京市海淀区甘家口街道车公庄西路20号院14号楼104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sculptor </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色手提帆布包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">mmlg </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨绿条纹短袖圆领T恤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜文娟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市密云区园林路中加锦园五号楼三单元301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张瑶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆市南岸区美堤雅城2期2栋2单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深灰长袖polo领卫衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kirsh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯色圆领长袖蓝卫衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋雨琦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">北京市大兴区海子角南里1号楼1单元302 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈日丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省武汉市蔡甸区车城大道218号 金凯公寓c栋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省肇庆市四会市康宁路东海明珠豪庭丰巢快递柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总付款：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收入：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单统计!A2</t>
-  </si>
-  <si>
-    <t>单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>402363823842</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6066262862752</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city breeze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省深圳市宝安区26区中洲中央公园1期1B2402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗婧蕾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米色千鸟格半身裙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色圆领T恤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨璐羽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连市沙河口区五一路26号201室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色圆领长袖卫衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅粉格子半身裙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单统计!A3</t>
-  </si>
-  <si>
-    <t>6066262892685</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>381023005001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>382486766575</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>382486766586</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6066262985154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sculptor, mmlg, kirsh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city breeze, mmlg</t>
+    <t>BY.X BOUTIQUE 月统计.xlsx</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直邮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -373,13 +1534,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,15 +1585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +1610,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -474,22 +1651,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +1712,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -642,19 +1853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -678,29 +1876,11 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -733,6 +1913,187 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -744,13 +2105,53 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,14 +2161,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,9 +2187,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -813,127 +2214,355 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -942,30 +2571,194 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="超链接 2" xfId="5" xr:uid="{32630F06-3EC3-421F-8BA4-F68DC1F93AA8}"/>
     <cellStyle name="汇总" xfId="4" builtinId="25"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -976,7 +2769,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -998,7 +2794,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1013,7 +2809,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1028,7 +2824,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1043,7 +2839,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1058,7 +2854,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1110,7 +2906,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.00_ "/>
+      <numFmt numFmtId="177" formatCode="0.00_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1143,32 +2939,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9048804-5556-4A84-95BF-149AB92C505D}" name="表1" displayName="表1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="12" headerRowCellStyle="汇总" dataCellStyle="汇总">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A14DD25-2821-4E7C-895A-C0483B6ECD99}" name="表1" displayName="表1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="汇总" dataCellStyle="汇总">
   <autoFilter ref="A1:I6" xr:uid="{3511C254-3102-4222-89E2-E50831232A38}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="11" dataCellStyle="超链接"/>
-    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="时间" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{86123A86-3590-4404-A610-C31A777341E3}" name="总付款" dataDxfId="8" dataCellStyle="汇总"/>
-    <tableColumn id="5" xr3:uid="{DC09076D-FA41-4E76-977C-FA7A2AC19B41}" name="总收入" dataDxfId="7" dataCellStyle="汇总"/>
-    <tableColumn id="6" xr3:uid="{5ED504C5-25C5-4A9C-BBCF-F3F38C9B9644}" name="国际运费" dataDxfId="6" dataCellStyle="汇总"/>
-    <tableColumn id="7" xr3:uid="{0DE844A7-A002-403F-BBDC-A55D97398B21}" name="国内运费" dataDxfId="5" dataCellStyle="汇总"/>
-    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="+/-" dataDxfId="4" dataCellStyle="汇总">
+    <tableColumn id="1" xr3:uid="{57038ABF-7C32-429F-A9FA-0E046DCDF588}" name="序号" dataDxfId="14" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{A6A9DF33-6439-48BA-AD15-02C49CFE76A5}" name="时间" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{17DF0527-C43C-4149-8C3A-73AA5C643324}" name="数量" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{86123A86-3590-4404-A610-C31A777341E3}" name="总付款" dataDxfId="11" dataCellStyle="汇总"/>
+    <tableColumn id="5" xr3:uid="{DC09076D-FA41-4E76-977C-FA7A2AC19B41}" name="总收入" dataDxfId="10" dataCellStyle="汇总"/>
+    <tableColumn id="6" xr3:uid="{5ED504C5-25C5-4A9C-BBCF-F3F38C9B9644}" name="国际运费" dataDxfId="9" dataCellStyle="汇总"/>
+    <tableColumn id="7" xr3:uid="{0DE844A7-A002-403F-BBDC-A55D97398B21}" name="国内运费" dataDxfId="8" dataCellStyle="汇总"/>
+    <tableColumn id="8" xr3:uid="{751A3E69-8056-4B75-9EB4-610C675CBEDB}" name="+/-" dataDxfId="7" dataCellStyle="汇总">
       <calculatedColumnFormula>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{53165C13-E632-43B0-9813-DB231B46918A}" name="品牌" dataDxfId="3" dataCellStyle="汇总"/>
+    <tableColumn id="9" xr3:uid="{53165C13-E632-43B0-9813-DB231B46918A}" name="品牌" dataDxfId="6" dataCellStyle="汇总"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D98713F-84A8-4330-B684-E4A4DB2A77C6}" name="表1_3" displayName="表1_3" ref="K1:M4" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="汇总" dataCellStyle="汇总">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9FE045B-16A1-42B1-8100-E9A0D9D69122}" name="表1_3" displayName="表1_3" ref="K1:M4" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="汇总" dataCellStyle="汇总">
   <autoFilter ref="K1:M4" xr:uid="{1128E194-390D-4247-9861-C536BD885B95}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C806D52-F38F-475C-AB98-F9F6282FCAFF}" name="序号" dataDxfId="1" dataCellStyle="超链接"/>
-    <tableColumn id="2" xr3:uid="{3166D4F1-12BE-4B92-AB6D-AA927BE64840}" name="方式" dataDxfId="0" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{6C806D52-F38F-475C-AB98-F9F6282FCAFF}" name="序号" dataDxfId="4" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{3166D4F1-12BE-4B92-AB6D-AA927BE64840}" name="方式" dataDxfId="3" dataCellStyle="超链接"/>
     <tableColumn id="3" xr3:uid="{5B0DE7B5-E5D7-48EA-863C-6917DBEB5BDF}" name="国际运费"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{274D01E2-BEF3-413B-996F-537C90AC56B6}" name="表1_34" displayName="表1_34" ref="O1:Q3" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="汇总" dataCellStyle="汇总">
+  <autoFilter ref="O1:Q3" xr:uid="{B359E3A1-860A-4F6F-86A2-AE75C947968A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C85F91AF-BCBE-400A-AFC3-061CEFEE9EA1}" name="日期" dataDxfId="1" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{2CD88185-FF00-47A6-B6CB-D5B54F45EE33}" name="来源" dataDxfId="0" dataCellStyle="超链接"/>
+    <tableColumn id="3" xr3:uid="{87153D04-C329-408A-9036-5292A6C3C747}" name="金额"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1470,12 +3278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF1A90-6CE2-4AE0-9EA7-432610208D2B}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1497,39 +3304,39 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -1542,109 +3349,109 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="104">
         <v>6.3</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>33</v>
+      <c r="B3" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>185</v>
       </c>
       <c r="G3" s="3">
         <v>185</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O3" s="4">
         <v>15110219169</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>31</v>
+      <c r="P3" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+      <c r="A5" s="115">
         <v>7.1</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="6">
+      <c r="E5" s="11"/>
+      <c r="F5" s="5">
         <v>245</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>245</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="6">
         <v>18610048277</v>
       </c>
-      <c r="P5" s="49" t="s">
-        <v>37</v>
+      <c r="P5" s="82" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="A6" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="A7" s="115">
         <v>7.2</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>41</v>
+      <c r="B7" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3">
         <v>279</v>
       </c>
@@ -1652,77 +3459,77 @@
         <f>F7*D7</f>
         <v>558</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="4" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="O7" s="4">
         <v>18875099023</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>40</v>
+      <c r="P7" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="133">
         <v>7.2</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="B9" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6">
+      <c r="E9" s="11"/>
+      <c r="F9" s="5">
         <v>188</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>F9*D9</f>
         <v>188</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="6">
         <v>15650735052</v>
       </c>
-      <c r="P9" s="49" t="s">
-        <v>45</v>
+      <c r="P9" s="82" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="44" t="s">
-        <v>43</v>
+      <c r="A10" s="134"/>
+      <c r="B10" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="3">
         <v>188</v>
       </c>
@@ -1730,296 +3537,296 @@
         <f>F10*D10</f>
         <v>188</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="4" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="O10" s="4">
         <v>18271394351</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>47</v>
+      <c r="P10" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="A11" s="134"/>
+      <c r="B11" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6">
+      <c r="E11" s="11"/>
+      <c r="F11" s="5">
         <v>188</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>F11*D11</f>
         <v>188</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="6">
         <v>13527053809</v>
       </c>
-      <c r="P11" s="49" t="s">
-        <v>49</v>
+      <c r="P11" s="82" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="50">
+      <c r="D12" s="113">
         <f>SUM(D3:D11)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50">
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="113">
         <f>SUM(G3:G11)</f>
         <v>1552</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="113">
         <v>1021</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="113">
         <f>SUM(I5:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="52"/>
+      <c r="J12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="112"/>
     </row>
     <row r="14" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="A14" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="108">
         <f>H12</f>
         <v>1021</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="108">
         <f>G12-I12</f>
         <v>1552</v>
       </c>
-      <c r="N14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="N14" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="108">
         <f>G14-D14-M12</f>
         <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="8"/>
+      <c r="A17" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="A18" s="133">
         <v>7.4</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>60</v>
+      <c r="B18" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="3">
         <v>185</v>
       </c>
       <c r="G18" s="3">
         <v>185</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="O18" s="4">
         <v>13088830989</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>58</v>
+      <c r="P18" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="A19" s="134"/>
+      <c r="B19" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6">
+      <c r="E19" s="11"/>
+      <c r="F19" s="5">
         <v>265</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>265</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="49"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="82"/>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8"/>
+      <c r="A20" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58">
+      <c r="A21" s="133">
         <v>7.4</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="B21" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6">
+      <c r="E21" s="11"/>
+      <c r="F21" s="5">
         <v>228</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>228</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="49"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="82"/>
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="44" t="s">
-        <v>64</v>
+      <c r="A22" s="134"/>
+      <c r="B22" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="3">
         <v>219</v>
       </c>
       <c r="G22" s="3">
         <v>219</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="4" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="O22" s="4">
         <v>18940928096</v>
       </c>
-      <c r="P22" s="14" t="s">
-        <v>63</v>
+      <c r="P22" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="50">
+      <c r="D23" s="113">
         <f>SUM(D18:D22)</f>
         <v>4</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50">
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="113">
         <f>SUM(G18:G22)</f>
         <v>897</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="113">
         <v>653.25</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="113">
         <f>SUM(I16:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="52"/>
+      <c r="J23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="112"/>
     </row>
     <row r="25" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="A25" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="108">
         <f>H23</f>
         <v>653.25</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="108">
         <f>G23-I23</f>
         <v>897</v>
       </c>
-      <c r="N25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="18">
+      <c r="N25" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" s="108">
         <f>G25-D25-M23</f>
         <v>243.75</v>
       </c>
@@ -2035,10 +3842,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{D9E2BB39-E07F-41BA-BA31-8C19FA8BC3DB}"/>
-    <hyperlink ref="A14" location="下单统计!A2" display="下单统计!A2" xr:uid="{F63EB1F1-3F3B-4E6A-A6BE-6EF378FD2C59}"/>
-    <hyperlink ref="B25" r:id="rId2" xr:uid="{511CEF38-34D8-4ECE-889C-4F35369D0BCC}"/>
-    <hyperlink ref="A25" location="下单统计!A3" display="下单统计!A3" xr:uid="{3B1FAB98-F182-4D2D-B919-0208EC9A5740}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{AD09E992-204B-4165-B7D5-FFE059CDBF6F}"/>
+    <hyperlink ref="A14" location="下单统计!A2" display="下单统计!A2" xr:uid="{5080004F-ADFA-4B83-B08A-AAECDB6C49E0}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{BFCF7A09-EC22-4FC2-90E3-E62D86BE89A2}"/>
+    <hyperlink ref="A25" location="下单统计!A3" display="下单统计!A3" xr:uid="{87722340-AA90-49EF-A1C0-B53BFADB56D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2046,151 +3853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC30A356-886E-4E07-AD49-91107A43FAE2}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>6.12</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="18">
-        <f>SUM(H2:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <f>SUM(I2:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <f>SUM(J2:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <f>H13-I13-J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3A941E-D598-4E42-B440-38C028C5B32B}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2206,203 +3873,2433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>25</v>
+      <c r="K1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="122">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="124">
         <v>7.2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="106">
         <v>7</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>1021</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="17">
         <v>1552</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
         <v>80</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="17">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>451</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24">
+      <c r="I2" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="116"/>
+      <c r="K2" s="122">
         <v>1</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="25">
+      <c r="L2" s="126"/>
+      <c r="M2" s="17">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="110">
         <v>2</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="124">
         <v>7.5</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="106">
         <v>4</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="120">
         <v>653.25</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="120">
         <v>897</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120">
         <v>0</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="120">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>243.75</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="125"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="A4" s="110"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="25"/>
+      <c r="I4" s="123"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
+      <c r="A5" s="110"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
+      <c r="A6" s="110"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120">
         <f>表1[[#This Row],[总收入]]-表1[[#This Row],[总付款]]-表1[[#This Row],[国内运费]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>27</v>
+      <c r="M8" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" s="118" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="27">
+      <c r="C9" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="116">
         <f>SUM(M1:M8)</f>
         <v>253</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="116">
         <f>H10-M9</f>
         <v>441.75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="40">
+      <c r="C10" s="117">
         <f>SUM(C2:C9)</f>
         <v>11</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="116">
         <f>SUM(H2:H9)</f>
         <v>694.75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11" s="27"/>
+      <c r="H11" s="116"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="拼邮!B14" display="拼邮!B14" xr:uid="{26D8F14D-3EE0-4BDB-A67A-B045FB4CF806}"/>
-    <hyperlink ref="A3" location="拼邮!B25" display="拼邮!B25" xr:uid="{93D39639-06E0-459A-BA84-112272ED66C1}"/>
+    <hyperlink ref="A2" location="拼邮!B14" display="拼邮!B14" xr:uid="{30CF856B-38A0-4C17-8B05-AC049BCA3659}"/>
+    <hyperlink ref="A3" location="拼邮!B25" display="拼邮!B25" xr:uid="{F0CBF686-C0F7-4F5D-A2CD-C1CFE7FCB82F}"/>
+    <hyperlink ref="O12" r:id="rId1" xr:uid="{BC3583A9-5BF1-4C27-B932-64E3775BDEFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147ADFC4-C3F9-403C-ADF3-03B9586A5269}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="74.44140625" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="142">
+        <v>7.12</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="5">
+        <v>188</v>
+      </c>
+      <c r="G3" s="9">
+        <v>198</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="93">
+        <v>8</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="30">
+        <v>15914484328</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143"/>
+      <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3">
+        <v>188</v>
+      </c>
+      <c r="G4" s="8">
+        <v>198</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="92">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15110219169</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="143"/>
+      <c r="B5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5">
+        <v>188</v>
+      </c>
+      <c r="G5" s="9">
+        <v>198</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="93">
+        <v>8</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="30">
+        <v>18615958236</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3">
+        <v>188</v>
+      </c>
+      <c r="G6" s="8">
+        <v>198</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="4">
+        <v>15374055589</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="M7" s="100"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="144">
+        <v>7.13</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34">
+        <v>275</v>
+      </c>
+      <c r="G8" s="138">
+        <f>F8+F9+10-5</f>
+        <v>545</v>
+      </c>
+      <c r="H8" s="146"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="154">
+        <v>8</v>
+      </c>
+      <c r="N8" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="148">
+        <v>18190799737</v>
+      </c>
+      <c r="P8" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="140" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="145"/>
+      <c r="B9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38">
+        <v>265</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="141"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="100"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
+        <v>7.14</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5">
+        <v>235</v>
+      </c>
+      <c r="G11" s="45">
+        <v>245</v>
+      </c>
+      <c r="H11" s="67">
+        <v>188</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24">
+        <v>25</v>
+      </c>
+      <c r="M11" s="93"/>
+      <c r="N11" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="6">
+        <v>13697286210</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>7.14</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3">
+        <v>188</v>
+      </c>
+      <c r="G13" s="8">
+        <v>198</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="92">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="4">
+        <v>15721555825</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="100"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="100"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="100"/>
+    </row>
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63">
+        <v>7.2</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="3">
+        <v>244</v>
+      </c>
+      <c r="G17" s="8">
+        <f>F17+10</f>
+        <v>254</v>
+      </c>
+      <c r="H17" s="8">
+        <v>194</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="18">
+        <v>25</v>
+      </c>
+      <c r="M17" s="92"/>
+      <c r="N17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="4">
+        <v>18605062932</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="101"/>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="M21" s="102"/>
+    </row>
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
+        <v>7.15</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5">
+        <v>268</v>
+      </c>
+      <c r="G22" s="45">
+        <v>278</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="93">
+        <v>8</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="6">
+        <v>18933367700</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="100"/>
+    </row>
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53">
+        <v>7.15</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="3">
+        <v>369</v>
+      </c>
+      <c r="G24" s="8">
+        <v>379</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="92">
+        <v>8</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="4">
+        <v>18222242851</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="102"/>
+    </row>
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="102"/>
+    </row>
+    <row r="27" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="81">
+        <f>SUM(D2:D24)-D6</f>
+        <v>10</v>
+      </c>
+      <c r="M27" s="102"/>
+    </row>
+    <row r="28" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="102"/>
+    </row>
+    <row r="29" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="102"/>
+    </row>
+    <row r="30" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="M30" s="102"/>
+    </row>
+    <row r="31" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="142">
+        <v>7.19</v>
+      </c>
+      <c r="B31" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5">
+        <v>257</v>
+      </c>
+      <c r="G31" s="138">
+        <f>F31+F32+10-5</f>
+        <v>519</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="154">
+        <v>8</v>
+      </c>
+      <c r="N31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="148">
+        <v>18933367700</v>
+      </c>
+      <c r="P31" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="143"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="5">
+        <v>257</v>
+      </c>
+      <c r="G32" s="139"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149">
+        <v>18933367700</v>
+      </c>
+      <c r="P32" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="102"/>
+    </row>
+    <row r="34" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="142">
+        <v>7.2</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="3">
+        <v>115</v>
+      </c>
+      <c r="G34" s="8">
+        <v>115</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="92">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="4">
+        <v>19810952575</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="143"/>
+      <c r="B35" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5">
+        <v>115</v>
+      </c>
+      <c r="G35" s="9">
+        <v>115</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="93">
+        <v>8</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="6">
+        <v>13088830989</v>
+      </c>
+      <c r="P35" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="M36" s="100"/>
+    </row>
+    <row r="37" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="142">
+        <v>7.22</v>
+      </c>
+      <c r="B37" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5">
+        <v>288</v>
+      </c>
+      <c r="G37" s="138">
+        <f>F37+F38+10-5</f>
+        <v>597</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="154">
+        <v>8</v>
+      </c>
+      <c r="N37" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37" s="148">
+        <v>18721530558</v>
+      </c>
+      <c r="P37" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37" s="148" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="143"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="5">
+        <v>304</v>
+      </c>
+      <c r="G38" s="139"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149">
+        <v>18933367700</v>
+      </c>
+      <c r="P38" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" s="100"/>
+    </row>
+    <row r="40" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="83">
+        <v>7.23</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="3">
+        <v>439</v>
+      </c>
+      <c r="G40" s="8">
+        <v>439</v>
+      </c>
+      <c r="H40" s="8">
+        <v>380</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="4">
+        <v>13855621622</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="102"/>
+    </row>
+    <row r="42" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="102"/>
+    </row>
+    <row r="43" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="102"/>
+    </row>
+    <row r="44" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M44" s="102"/>
+    </row>
+    <row r="45" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="88">
+        <v>7.29</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5">
+        <v>439</v>
+      </c>
+      <c r="G45" s="9">
+        <v>439</v>
+      </c>
+      <c r="H45" s="9">
+        <v>380</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="P8:P9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C14" location="已下单!A2" display="已下单" xr:uid="{33A6F5F4-70E1-4632-8BB4-37EE1EEDB145}"/>
+    <hyperlink ref="C18" location="已下单!A11" display="已下单" xr:uid="{1BB9060B-07CD-4250-B9D4-07FA85F77F9D}"/>
+    <hyperlink ref="C25" location="已下单!A12" display="已下单" xr:uid="{27644A53-1D68-4026-9AEE-9AFCF35798D9}"/>
+    <hyperlink ref="C41" location="已下单!A14" display="已下单" xr:uid="{DEB620E5-1831-46C6-BF32-CBE41D6A46E0}"/>
+    <hyperlink ref="C46" location="已下单!A21" display="已下单" xr:uid="{BE2051A6-F014-442C-9AC7-9D225ECCB480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>7.1</v>
+      </c>
+      <c r="B3" s="160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3">
+        <v>68</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="98">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4">
+        <v>13816390376</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>7.14</v>
+      </c>
+      <c r="B4" s="161"/>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="5">
+        <v>58</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+10</f>
+        <v>68</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="99">
+        <v>8</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="6">
+        <v>15983382171</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>7.18</v>
+      </c>
+      <c r="B5" s="161"/>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="3">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3">
+        <f>68-5</f>
+        <v>63</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="98">
+        <v>8</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="4">
+        <v>18890400255</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <f>F6+10</f>
+        <v>39</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="99">
+        <v>8</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="6">
+        <v>15631157588</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>7.26</v>
+      </c>
+      <c r="B7" s="161"/>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7+10</f>
+        <v>39</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="98">
+        <v>8</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="4">
+        <v>13515219857</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="158">
+        <v>7.29</v>
+      </c>
+      <c r="B8" s="161"/>
+      <c r="C8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8+10</f>
+        <v>39</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="99">
+        <v>8</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="6">
+        <v>15362446417</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="159"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <f>F9+10</f>
+        <v>39</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="98">
+        <v>8</v>
+      </c>
+      <c r="N9" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="4">
+        <v>18222242851</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G3:L9)</f>
+        <v>355</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="M10">
+        <f>SUM(M3:M9)</f>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B3:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C10" location="已下单!A2" display="已预定*5" xr:uid="{2721D7E1-38C3-4BD6-BB3A-496DB011E8F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="178">
+        <v>7.14</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5500</v>
+      </c>
+      <c r="G2" s="47">
+        <v>355</v>
+      </c>
+      <c r="H2" s="52">
+        <f>E2*F2+2400</f>
+        <v>29900</v>
+      </c>
+      <c r="I2" s="174">
+        <f>1221</f>
+        <v>1221</v>
+      </c>
+      <c r="J2" s="167">
+        <v>500</v>
+      </c>
+      <c r="K2" s="107">
+        <v>56</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="103">
+        <v>7.14</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="179"/>
+      <c r="B3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>198</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="68">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="O3" s="103">
+        <v>7.14</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>441.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="179"/>
+      <c r="B4" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3">
+        <v>198</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="85">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="179"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="5">
+        <v>198</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="68">
+        <v>8</v>
+      </c>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="179"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="3">
+        <v>198</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="85">
+        <v>8</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="179"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="179"/>
+      <c r="B8" s="164" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="72">
+        <v>1</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="180">
+        <v>545</v>
+      </c>
+      <c r="H8" s="71"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="165">
+        <v>8</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="Q8" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="179"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="75">
+        <v>1</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="74"/>
+      <c r="Q9" s="51">
+        <f>SUM(Q2:Q7)</f>
+        <v>1941.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="179"/>
+      <c r="B10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>245</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="68">
+        <v>188</v>
+      </c>
+      <c r="J10" s="68">
+        <v>25</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77">
+        <v>7.2</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3">
+        <v>254</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="92">
+        <v>194</v>
+      </c>
+      <c r="J11" s="85">
+        <v>25</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="173" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5">
+        <v>278</v>
+      </c>
+      <c r="H12" s="183"/>
+      <c r="I12" s="154">
+        <v>1476</v>
+      </c>
+      <c r="J12" s="170"/>
+      <c r="K12" s="93">
+        <v>8</v>
+      </c>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="173"/>
+      <c r="B13" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="3">
+        <v>369</v>
+      </c>
+      <c r="H13" s="184"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="92">
+        <v>8</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="162">
+        <v>519</v>
+      </c>
+      <c r="H14" s="184"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="93">
+        <v>8</v>
+      </c>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="179"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="93">
+        <v>8</v>
+      </c>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="179"/>
+      <c r="B16" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3">
+        <v>115</v>
+      </c>
+      <c r="H16" s="184"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="92">
+        <v>8</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="179"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5">
+        <v>115</v>
+      </c>
+      <c r="H17" s="184"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="93">
+        <v>8</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="179"/>
+      <c r="B18" s="164" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="162">
+        <v>597</v>
+      </c>
+      <c r="H18" s="184"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="93">
+        <v>8</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="179"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="93">
+        <v>8</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="179"/>
+      <c r="B20" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3">
+        <v>439</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="92">
+        <v>380</v>
+      </c>
+      <c r="J20" s="172"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89">
+        <v>7.29</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5">
+        <v>439</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="93">
+        <v>380</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="51">
+        <f>SUM(E2:E24)</f>
+        <v>23</v>
+      </c>
+      <c r="G27" s="51">
+        <f>SUM(G2:G24)</f>
+        <v>5062</v>
+      </c>
+      <c r="I27" s="51">
+        <f>SUM(I2:I24)+SUM(J2:J24)+SUM(K2:K24)+25</f>
+        <v>4574</v>
+      </c>
+      <c r="L27" s="51">
+        <f>G27-I27</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="J12:J20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="预定!A2" display=" Bling Star" xr:uid="{7050FB7E-F09C-44EA-9105-A9724674BA59}"/>
+    <hyperlink ref="B10" location="订单!A10" display="BOY LONDON" xr:uid="{8E9B5DFF-FB9A-467A-8249-14472B1442A7}"/>
+    <hyperlink ref="B3" location="订单!A12" display="SLOWACID" xr:uid="{DD617209-99D0-4FA2-B282-9A9CDA634BDC}"/>
+    <hyperlink ref="B4:B7" location="订单!A2" display="Apple&amp;Deep" xr:uid="{3F70DFF6-2ED1-4B1B-A393-69850E42D3F5}"/>
+    <hyperlink ref="B8:B9" location="订单!A7" display=" LMC" xr:uid="{991AC35D-4BE1-43E2-BA3B-8872E8D8919F}"/>
+    <hyperlink ref="B11" location="订单!A16" display="MLB" xr:uid="{B5C7586D-8338-420E-8246-F0BE6C31935C}"/>
+    <hyperlink ref="B12" location="订单!A21" display="LMC" xr:uid="{52560FAA-2886-44A3-8EA8-017C4DF2096A}"/>
+    <hyperlink ref="B13" location="订单!A23" display="MSCHF" xr:uid="{42145558-80D2-4712-B8B4-79824DE898C0}"/>
+    <hyperlink ref="B14:B15" location="订单!A30" display="sculptor" xr:uid="{3095649B-DF5F-4E90-B029-623BE4BD91A5}"/>
+    <hyperlink ref="B16:B17" location="订单!A33" display="mixxmix" xr:uid="{939936FA-CCA6-446C-BC91-B362C5E9A164}"/>
+    <hyperlink ref="B18:B19" location="订单!A36" display="MIMICAWE" xr:uid="{5B13E70C-6C77-41FC-9B44-F22F81D7B600}"/>
+    <hyperlink ref="B20" location="订单!A39" display="flia" xr:uid="{82F3BDD8-4522-4434-8DCB-16EA5F0F5A11}"/>
+    <hyperlink ref="B21" location="订单!A44" display="flia" xr:uid="{03166FA8-DDDC-45C9-96BF-8BA2AAB4459C}"/>
+    <hyperlink ref="L30" r:id="rId1" xr:uid="{3046FDB0-44D3-49C0-B5A1-54E9CFA226AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>

--- a/BY.X BOUTIQUE七月订单.xlsx
+++ b/BY.X BOUTIQUE七月订单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09AC85A-96D2-4D83-AFEE-4B74258AA54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75DB788-5D12-4327-922D-0CC7CFBE8E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
@@ -24,12 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -647,6 +641,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{DE2A9EA4-FE80-418F-87BB-0A1E6BC3627F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+包邮价格</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I27" authorId="0" shapeId="0" xr:uid="{4A06A591-8733-4AFC-8EB9-7DEF6428DB35}">
       <text>
         <r>
@@ -678,7 +698,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="215">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1269,10 +1289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张佳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1522,11 +1538,19 @@
     <t>BY.X BOUTIQUE 月统计.xlsx</t>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>直邮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益①</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益②</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2565,6 +2589,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,24 +2616,42 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2615,12 +2663,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2634,18 +2676,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2729,6 +2759,12 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3304,10 +3340,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="134"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3350,7 +3386,7 @@
     </row>
     <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -3359,7 +3395,7 @@
         <v>6.3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
@@ -3376,7 +3412,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="18"/>
       <c r="K3" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="8"/>
@@ -3387,12 +3423,12 @@
         <v>15110219169</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -3401,10 +3437,10 @@
         <v>7.1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -3420,23 +3456,23 @@
       <c r="I5" s="9"/>
       <c r="J5" s="24"/>
       <c r="K5" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L5" s="24"/>
       <c r="M5" s="9"/>
       <c r="N5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" s="6">
         <v>18610048277</v>
       </c>
       <c r="P5" s="82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -3445,7 +3481,7 @@
         <v>7.2</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -3463,32 +3499,32 @@
       <c r="I7" s="8"/>
       <c r="J7" s="18"/>
       <c r="K7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="8"/>
       <c r="N7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O7" s="4">
         <v>18875099023</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133">
+      <c r="A9" s="135">
         <v>7.2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -3505,25 +3541,25 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="135" t="s">
-        <v>185</v>
+      <c r="K9" s="137" t="s">
+        <v>184</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="9"/>
       <c r="N9" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O9" s="6">
         <v>15650735052</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -3540,23 +3576,23 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="136"/>
+      <c r="K10" s="138"/>
       <c r="L10" s="18"/>
       <c r="M10" s="8"/>
       <c r="N10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O10" s="4">
         <v>18271394351</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -3573,17 +3609,17 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="137"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="24"/>
       <c r="M11" s="9"/>
       <c r="N11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O11" s="6">
         <v>13527053809</v>
       </c>
       <c r="P11" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3611,27 +3647,27 @@
     </row>
     <row r="14" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="110" t="s">
         <v>176</v>
       </c>
+      <c r="B14" s="188" t="s">
+        <v>175</v>
+      </c>
       <c r="C14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="108">
         <f>H12</f>
         <v>1021</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="108">
         <f>G12-I12</f>
         <v>1552</v>
       </c>
       <c r="N14" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O14" s="108">
         <f>G14-D14-M12</f>
@@ -3641,16 +3677,16 @@
     <row r="15" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133">
+      <c r="A18" s="135">
         <v>7.4</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -3667,7 +3703,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="18"/>
       <c r="K18" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="8"/>
@@ -3682,9 +3718,9 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -3701,7 +3737,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="24"/>
       <c r="K19" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="9"/>
@@ -3711,16 +3747,16 @@
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133">
+      <c r="A21" s="135">
         <v>7.4</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -3737,7 +3773,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="24"/>
       <c r="K21" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="9"/>
@@ -3746,9 +3782,9 @@
       <c r="P21" s="82"/>
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="134"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
@@ -3765,18 +3801,18 @@
       <c r="I22" s="8"/>
       <c r="J22" s="18"/>
       <c r="K22" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="8"/>
       <c r="N22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O22" s="4">
         <v>18940928096</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3804,27 +3840,27 @@
     </row>
     <row r="25" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="110" t="s">
         <v>163</v>
       </c>
+      <c r="B25" s="188" t="s">
+        <v>162</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="108">
         <f>H23</f>
         <v>653.25</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="108">
         <f>G23-I23</f>
         <v>897</v>
       </c>
       <c r="N25" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O25" s="108">
         <f>G25-D25-M23</f>
@@ -3842,22 +3878,21 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{AD09E992-204B-4165-B7D5-FFE059CDBF6F}"/>
     <hyperlink ref="A14" location="下单统计!A2" display="下单统计!A2" xr:uid="{5080004F-ADFA-4B83-B08A-AAECDB6C49E0}"/>
-    <hyperlink ref="B25" r:id="rId2" xr:uid="{BFCF7A09-EC22-4FC2-90E3-E62D86BE89A2}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{BFCF7A09-EC22-4FC2-90E3-E62D86BE89A2}"/>
     <hyperlink ref="A25" location="下单统计!A3" display="下单统计!A3" xr:uid="{87722340-AA90-49EF-A1C0-B53BFADB56D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC30A356-886E-4E07-AD49-91107A43FAE2}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3874,19 +3909,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>12</v>
@@ -3895,16 +3930,16 @@
         <v>13</v>
       </c>
       <c r="H1" s="129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="128" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>12</v>
@@ -3935,7 +3970,7 @@
         <v>451</v>
       </c>
       <c r="I2" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="116"/>
       <c r="K2" s="122">
@@ -3971,7 +4006,7 @@
         <v>243.75</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" s="125"/>
       <c r="L3" s="121"/>
@@ -4024,10 +4059,10 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M8" s="118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O8" s="118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4035,7 +4070,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M9" s="116">
         <f>SUM(M1:M8)</f>
@@ -4061,12 +4096,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O12" s="130" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4106,8 +4136,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4134,10 +4164,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="134"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4188,7 +4218,7 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142">
+      <c r="A3" s="140">
         <v>7.12</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -4210,7 +4240,7 @@
       <c r="H3" s="29"/>
       <c r="I3" s="9"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="151" t="s">
+      <c r="K3" s="157" t="s">
         <v>101</v>
       </c>
       <c r="L3" s="24"/>
@@ -4231,7 +4261,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -4251,7 +4281,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="152"/>
+      <c r="K4" s="158"/>
       <c r="L4" s="18"/>
       <c r="M4" s="92">
         <v>8</v>
@@ -4270,7 +4300,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="32" t="s">
         <v>26</v>
       </c>
@@ -4290,7 +4320,7 @@
       <c r="H5" s="29"/>
       <c r="I5" s="9"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="153"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="24"/>
       <c r="M5" s="93">
         <v>8</v>
@@ -4309,7 +4339,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
@@ -4329,7 +4359,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="189" t="s">
         <v>102</v>
       </c>
       <c r="L6" s="18"/>
@@ -4355,7 +4385,7 @@
       <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144">
+      <c r="A8" s="152">
         <v>7.13</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -4371,35 +4401,35 @@
       <c r="F8" s="34">
         <v>275</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="146">
         <f>F8+F9+10-5</f>
         <v>545</v>
       </c>
-      <c r="H8" s="146"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="36"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="151" t="s">
+      <c r="K8" s="157" t="s">
         <v>103</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="154">
+      <c r="M8" s="148">
         <v>8</v>
       </c>
-      <c r="N8" s="148" t="s">
+      <c r="N8" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="148">
+      <c r="O8" s="142">
         <v>18190799737</v>
       </c>
-      <c r="P8" s="148" t="s">
+      <c r="P8" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="140" t="s">
+      <c r="Q8" s="150" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
@@ -4413,17 +4443,17 @@
       <c r="F9" s="38">
         <v>265</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="40"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="153"/>
+      <c r="K9" s="159"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="141"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="151"/>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
@@ -4732,10 +4762,10 @@
       <c r="M30" s="102"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="142">
+      <c r="A31" s="140">
         <v>7.19</v>
       </c>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="144" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -4748,7 +4778,7 @@
       <c r="F31" s="5">
         <v>257</v>
       </c>
-      <c r="G31" s="138">
+      <c r="G31" s="146">
         <f>F31+F32+10-5</f>
         <v>519</v>
       </c>
@@ -4757,25 +4787,25 @@
       <c r="J31" s="24"/>
       <c r="K31" s="26"/>
       <c r="L31" s="24"/>
-      <c r="M31" s="154">
+      <c r="M31" s="148">
         <v>8</v>
       </c>
-      <c r="N31" s="148" t="s">
+      <c r="N31" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="O31" s="148">
+      <c r="O31" s="142">
         <v>18933367700</v>
       </c>
-      <c r="P31" s="148" t="s">
+      <c r="P31" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="Q31" s="148" t="s">
+      <c r="Q31" s="142" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="157"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
@@ -4786,21 +4816,21 @@
       <c r="F32" s="5">
         <v>257</v>
       </c>
-      <c r="G32" s="139"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="24"/>
       <c r="I32" s="9"/>
       <c r="J32" s="24"/>
       <c r="K32" s="26"/>
       <c r="L32" s="24"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="149"/>
-      <c r="O32" s="149">
+      <c r="M32" s="149"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143">
         <v>18933367700</v>
       </c>
-      <c r="P32" s="149" t="s">
+      <c r="P32" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="Q32" s="149" t="s">
+      <c r="Q32" s="143" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4811,7 +4841,7 @@
       <c r="M33" s="102"/>
     </row>
     <row r="34" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="142">
+      <c r="A34" s="140">
         <v>7.2</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -4852,7 +4882,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="143"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="23" t="s">
         <v>134</v>
       </c>
@@ -4898,10 +4928,10 @@
       <c r="M36" s="100"/>
     </row>
     <row r="37" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="142">
+      <c r="A37" s="140">
         <v>7.22</v>
       </c>
-      <c r="B37" s="156" t="s">
+      <c r="B37" s="144" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -4914,7 +4944,7 @@
       <c r="F37" s="5">
         <v>288</v>
       </c>
-      <c r="G37" s="138">
+      <c r="G37" s="146">
         <f>F37+F38+10-5</f>
         <v>597</v>
       </c>
@@ -4923,25 +4953,25 @@
       <c r="J37" s="24"/>
       <c r="K37" s="26"/>
       <c r="L37" s="24"/>
-      <c r="M37" s="154">
+      <c r="M37" s="148">
         <v>8</v>
       </c>
-      <c r="N37" s="148" t="s">
+      <c r="N37" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="148">
+      <c r="O37" s="142">
         <v>18721530558</v>
       </c>
-      <c r="P37" s="148" t="s">
+      <c r="P37" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="Q37" s="148" t="s">
+      <c r="Q37" s="142" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="157"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="5" t="s">
         <v>129</v>
       </c>
@@ -4952,21 +4982,21 @@
       <c r="F38" s="5">
         <v>304</v>
       </c>
-      <c r="G38" s="139"/>
+      <c r="G38" s="147"/>
       <c r="H38" s="24"/>
       <c r="I38" s="9"/>
       <c r="J38" s="24"/>
       <c r="K38" s="26"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149">
+      <c r="M38" s="149"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143">
         <v>18933367700</v>
       </c>
-      <c r="P38" s="149" t="s">
+      <c r="P38" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="Q38" s="149" t="s">
+      <c r="Q38" s="143" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4975,7 +5005,7 @@
         <v>138</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M39" s="100"/>
     </row>
@@ -5037,7 +5067,7 @@
         <v>138</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M44" s="102"/>
     </row>
@@ -5049,7 +5079,7 @@
         <v>139</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -5083,19 +5113,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="M31:M32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="Q8:Q9"/>
@@ -5112,6 +5129,19 @@
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C14">
@@ -5224,10 +5254,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132"/>
+      <c r="C1" s="134"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5281,7 +5311,7 @@
       <c r="A3" s="22">
         <v>7.1</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="162" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5322,7 +5352,7 @@
       <c r="A4" s="22">
         <v>7.14</v>
       </c>
-      <c r="B4" s="161"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5362,7 +5392,7 @@
       <c r="A5" s="22">
         <v>7.18</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="3" t="s">
         <v>78</v>
       </c>
@@ -5402,7 +5432,7 @@
       <c r="A6" s="22">
         <v>7.2</v>
       </c>
-      <c r="B6" s="161"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="5" t="s">
         <v>122</v>
       </c>
@@ -5442,7 +5472,7 @@
       <c r="A7" s="22">
         <v>7.26</v>
       </c>
-      <c r="B7" s="161"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="3" t="s">
         <v>122</v>
       </c>
@@ -5466,23 +5496,23 @@
         <v>8</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O7" s="4">
         <v>13515219857</v>
       </c>
       <c r="P7" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="62" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158">
+      <c r="A8" s="160">
         <v>7.29</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="5" t="s">
         <v>122</v>
       </c>
@@ -5506,21 +5536,21 @@
         <v>8</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O8" s="6">
         <v>15362446417</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="3" t="s">
         <v>122</v>
       </c>
@@ -5544,21 +5574,21 @@
         <v>8</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O9" s="4">
         <v>18222242851</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10">
         <f>SUM(G3:L9)</f>
@@ -5601,10 +5631,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E11D21-E3EC-4765-94A6-5F04A796FA6F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5669,7 +5699,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178">
+      <c r="A2" s="180">
         <v>7.14</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -5692,11 +5722,11 @@
         <f>E2*F2+2400</f>
         <v>29900</v>
       </c>
-      <c r="I2" s="174">
+      <c r="I2" s="176">
         <f>1221</f>
         <v>1221</v>
       </c>
-      <c r="J2" s="167">
+      <c r="J2" s="169">
         <v>500</v>
       </c>
       <c r="K2" s="107">
@@ -5716,7 +5746,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="58" t="s">
         <v>43</v>
       </c>
@@ -5734,8 +5764,8 @@
         <v>198</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="168"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="68">
         <v>8</v>
       </c>
@@ -5751,8 +5781,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
-      <c r="B4" s="177" t="s">
+      <c r="A4" s="181"/>
+      <c r="B4" s="179" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="69" t="s">
@@ -5769,16 +5799,16 @@
         <v>198</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="168"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="85">
         <v>8</v>
       </c>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="177"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -5793,16 +5823,16 @@
         <v>198</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="168"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="170"/>
       <c r="K5" s="68">
         <v>8</v>
       </c>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="69" t="s">
         <v>26</v>
       </c>
@@ -5817,16 +5847,16 @@
         <v>198</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="168"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="85">
         <v>8</v>
       </c>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="177"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="94" t="s">
         <v>27</v>
       </c>
@@ -5837,16 +5867,16 @@
       <c r="F7" s="96"/>
       <c r="G7" s="95"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="168"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="91"/>
       <c r="L7" s="97" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="164" t="s">
+      <c r="A8" s="181"/>
+      <c r="B8" s="166" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="70" t="s">
@@ -5859,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="180">
+      <c r="G8" s="182">
         <v>545</v>
       </c>
       <c r="H8" s="71"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="165">
+      <c r="I8" s="177"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="167">
         <v>8</v>
       </c>
       <c r="L8" s="71"/>
@@ -5874,8 +5904,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="73" t="s">
         <v>20</v>
       </c>
@@ -5886,11 +5916,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="74"/>
-      <c r="G9" s="181"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="74"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="166"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="168"/>
       <c r="L9" s="74"/>
       <c r="Q9" s="51">
         <f>SUM(Q2:Q7)</f>
@@ -5898,7 +5928,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
+      <c r="A10" s="181"/>
       <c r="B10" s="58" t="s">
         <v>39</v>
       </c>
@@ -5960,7 +5990,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="175" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -5979,18 +6009,18 @@
       <c r="G12" s="5">
         <v>278</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="154">
+      <c r="H12" s="185"/>
+      <c r="I12" s="148">
         <v>1476</v>
       </c>
-      <c r="J12" s="170"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="93">
         <v>8</v>
       </c>
       <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="58" t="s">
         <v>84</v>
       </c>
@@ -6007,22 +6037,22 @@
       <c r="G13" s="3">
         <v>369</v>
       </c>
-      <c r="H13" s="184"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="171"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="92">
         <v>8</v>
       </c>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="181" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="144" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -6032,21 +6062,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="162">
+      <c r="G14" s="164">
         <v>519</v>
       </c>
-      <c r="H14" s="184"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="171"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="173"/>
       <c r="K14" s="93">
         <v>8</v>
       </c>
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="157"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
@@ -6054,18 +6084,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="171"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="173"/>
       <c r="K15" s="93">
         <v>8</v>
       </c>
       <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="164" t="s">
+      <c r="A16" s="181"/>
+      <c r="B16" s="166" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -6081,17 +6111,17 @@
       <c r="G16" s="3">
         <v>115</v>
       </c>
-      <c r="H16" s="184"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="171"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="92">
         <v>8</v>
       </c>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="23" t="s">
         <v>134</v>
       </c>
@@ -6105,20 +6135,20 @@
       <c r="G17" s="5">
         <v>115</v>
       </c>
-      <c r="H17" s="184"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="171"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="173"/>
       <c r="K17" s="93">
         <v>8</v>
       </c>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
-      <c r="B18" s="164" t="s">
+      <c r="A18" s="181"/>
+      <c r="B18" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="144" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -6128,21 +6158,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="162">
+      <c r="G18" s="164">
         <v>597</v>
       </c>
-      <c r="H18" s="184"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="171"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="173"/>
       <c r="K18" s="93">
         <v>8</v>
       </c>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="157"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="5" t="s">
         <v>129</v>
       </c>
@@ -6150,17 +6180,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="171"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="173"/>
       <c r="K19" s="93">
         <v>8</v>
       </c>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="58" t="s">
         <v>138</v>
       </c>
@@ -6181,10 +6211,10 @@
       <c r="I20" s="92">
         <v>380</v>
       </c>
-      <c r="J20" s="172"/>
+      <c r="J20" s="174"/>
       <c r="K20" s="92"/>
       <c r="L20" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6198,7 +6228,7 @@
         <v>139</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -6211,7 +6241,9 @@
       <c r="I21" s="93">
         <v>380</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="93">
+        <v>0</v>
+      </c>
       <c r="K21" s="93"/>
       <c r="L21" s="24" t="s">
         <v>114</v>
@@ -6229,9 +6261,6 @@
       <c r="I26" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="27" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="51">
@@ -6246,15 +6275,35 @@
         <f>SUM(I2:I24)+SUM(J2:J24)+SUM(K2:K24)+25</f>
         <v>4574</v>
       </c>
-      <c r="L27" s="51">
+      <c r="K27" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="131">
         <f>G27-I27</f>
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L30" s="130" t="s">
-        <v>211</v>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="132">
+        <v>441.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" s="132">
+        <f>SUM(L27:L28)</f>
+        <v>929.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="130" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +6343,7 @@
     <hyperlink ref="B18:B19" location="订单!A36" display="MIMICAWE" xr:uid="{5B13E70C-6C77-41FC-9B44-F22F81D7B600}"/>
     <hyperlink ref="B20" location="订单!A39" display="flia" xr:uid="{82F3BDD8-4522-4434-8DCB-16EA5F0F5A11}"/>
     <hyperlink ref="B21" location="订单!A44" display="flia" xr:uid="{03166FA8-DDDC-45C9-96BF-8BA2AAB4459C}"/>
-    <hyperlink ref="L30" r:id="rId1" xr:uid="{3046FDB0-44D3-49C0-B5A1-54E9CFA226AF}"/>
+    <hyperlink ref="L32" r:id="rId1" xr:uid="{3046FDB0-44D3-49C0-B5A1-54E9CFA226AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
